--- a/GLOBAL/Causas Cambio Climático/Antropógenas/Concentracion CO2 Global hasta 2018.xlsx
+++ b/GLOBAL/Causas Cambio Climático/Antropógenas/Concentracion CO2 Global hasta 2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Causas Cambio Climático\Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0EC38A-2E7F-41DD-8DC2-6F9251B86476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7B6DEF-452E-4079-97A6-A06759BFEE22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,14 +539,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -594,13 +595,14 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,9 +623,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Entidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Año"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Concentración de CO₂ (partes por millón)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Concentración de CO₂ (partes por millón)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0689A63A-4CF8-49F2-BF5B-F71126D5614B}" name="Variación Concentración de CO₂ (partes por millón)" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{81CDC480-2FD8-4948-B3B1-039966208AA9}" name="Variación Porcentual Concentración de CO₂ (%)" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{81CDC480-2FD8-4948-B3B1-039966208AA9}" name="Variación Porcentual Concentración de CO₂ (%)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -929,7 +931,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,13 +946,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -961,14 +963,8 @@
       <c r="B2">
         <v>1990</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>354.39</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,13 +974,13 @@
       <c r="B3">
         <v>1991</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>355.61</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1.2200000000000273</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0.34425350602444404</v>
       </c>
     </row>
@@ -995,13 +991,13 @@
       <c r="B4">
         <v>1992</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>356.45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0.83999999999997499</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0.23621382975731139</v>
       </c>
     </row>
@@ -1012,13 +1008,13 @@
       <c r="B5">
         <v>1993</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>357.1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>0.65000000000003411</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0.18235376630664446</v>
       </c>
     </row>
@@ -1029,13 +1025,13 @@
       <c r="B6">
         <v>1994</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>358.83</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>1.7299999999999613</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0.48445813497618634</v>
       </c>
     </row>
@@ -1046,13 +1042,13 @@
       <c r="B7">
         <v>1995</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>360.82</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>1.9900000000000091</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0.55458016330853299</v>
       </c>
     </row>
@@ -1063,13 +1059,13 @@
       <c r="B8">
         <v>1996</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>362.61</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>1.7900000000000205</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0.49609223435508576</v>
       </c>
     </row>
@@ -1080,13 +1076,13 @@
       <c r="B9">
         <v>1997</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>363.73</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>1.1200000000000045</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>0.30887179062905173</v>
       </c>
     </row>
@@ -1097,13 +1093,13 @@
       <c r="B10">
         <v>1998</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>366.7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>2.9699999999999704</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.81653974101668014</v>
       </c>
     </row>
@@ -1114,13 +1110,13 @@
       <c r="B11">
         <v>1999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>368.38</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>1.6800000000000068</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>0.4581401690755405</v>
       </c>
     </row>
@@ -1131,13 +1127,13 @@
       <c r="B12">
         <v>2000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>369.55</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>1.1700000000000159</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>0.3176068190455551</v>
       </c>
     </row>
@@ -1148,13 +1144,13 @@
       <c r="B13">
         <v>2001</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>371.14</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>1.589999999999975</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>0.43025301041806924</v>
       </c>
     </row>
@@ -1165,13 +1161,13 @@
       <c r="B14">
         <v>2002</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>373.28</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>2.1399999999999864</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>0.57660182141509575</v>
       </c>
     </row>
@@ -1182,13 +1178,13 @@
       <c r="B15">
         <v>2003</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>375.8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>2.5200000000000387</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>0.67509644234891741</v>
       </c>
     </row>
@@ -1199,13 +1195,13 @@
       <c r="B16">
         <v>2004</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>377.52</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>1.7199999999999704</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>0.45769026077700115</v>
       </c>
     </row>
@@ -1216,13 +1212,13 @@
       <c r="B17">
         <v>2005</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>379.8</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>2.2800000000000296</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>0.60394151303243004</v>
       </c>
     </row>
@@ -1233,13 +1229,13 @@
       <c r="B18">
         <v>2006</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>381.9</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>2.0999999999999659</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>0.5529225908372738</v>
       </c>
     </row>
@@ -1250,13 +1246,13 @@
       <c r="B19">
         <v>2007</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>383.79</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>1.8900000000000432</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>0.49489395129616215</v>
       </c>
     </row>
@@ -1267,13 +1263,13 @@
       <c r="B20">
         <v>2008</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>385.6</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>1.8100000000000023</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>0.47161207952265616</v>
       </c>
     </row>
@@ -1284,13 +1280,13 @@
       <c r="B21">
         <v>2009</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>387.43</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>1.8299999999999841</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>0.47458506224065977</v>
       </c>
     </row>
@@ -1301,13 +1297,13 @@
       <c r="B22">
         <v>2010</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>389.9</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>2.4699999999999704</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>0.63753452236532293</v>
       </c>
     </row>
@@ -1318,13 +1314,13 @@
       <c r="B23">
         <v>2011</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <v>391.65</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>1.75</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>0.44883303411131059</v>
       </c>
     </row>
@@ -1335,13 +1331,13 @@
       <c r="B24">
         <v>2012</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>393.85</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>2.2000000000000455</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>0.56172603089494333</v>
       </c>
     </row>
@@ -1352,13 +1348,13 @@
       <c r="B25">
         <v>2013</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>396.52</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>2.6699999999999591</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>0.67792306715753692</v>
       </c>
     </row>
@@ -1369,13 +1365,13 @@
       <c r="B26">
         <v>2014</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <v>398.65</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>2.1299999999999955</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>0.53717340865529994</v>
       </c>
     </row>
@@ -1386,13 +1382,13 @@
       <c r="B27">
         <v>2015</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>400.83</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>2.1800000000000068</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>0.5468456039132088</v>
       </c>
     </row>
@@ -1403,13 +1399,13 @@
       <c r="B28">
         <v>2016</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>404.24</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>3.410000000000025</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>0.85073472544470852</v>
       </c>
     </row>
@@ -1420,13 +1416,13 @@
       <c r="B29">
         <v>2017</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>406.55</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>2.3100000000000023</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>0.57144270730259306</v>
       </c>
     </row>
@@ -1437,13 +1433,13 @@
       <c r="B30">
         <v>2018</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>408.52</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>1.9699999999999704</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>0.48456524412740631</v>
       </c>
     </row>
